--- a/Data_Dictionary.xlsx
+++ b/Data_Dictionary.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="201">
   <si>
     <t xml:space="preserve">Jeff’s Energy System Interface</t>
   </si>
@@ -61,6 +61,15 @@
     <t xml:space="preserve">(default)</t>
   </si>
   <si>
+    <t xml:space="preserve">s30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">~30 sec</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15k</t>
+  </si>
+  <si>
     <t xml:space="preserve">m5 </t>
   </si>
   <si>
@@ -106,9 +115,6 @@
     <t xml:space="preserve">INF</t>
   </si>
   <si>
-    <t xml:space="preserve">Continuous Queries</t>
-  </si>
-  <si>
     <t xml:space="preserve">Measure</t>
   </si>
   <si>
@@ -124,54 +130,57 @@
     <t xml:space="preserve">s5.temp</t>
   </si>
   <si>
-    <t xml:space="preserve">Source Continuous Query "cq_temp_m5"</t>
+    <t xml:space="preserve">Source: tempMQTT_V2.py write every 60 sec</t>
   </si>
   <si>
     <t xml:space="preserve">time</t>
   </si>
   <si>
+    <t xml:space="preserve">nanoseconds</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unix UTC timestamp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">heat_interval</t>
+  </si>
+  <si>
+    <t xml:space="preserve">heating sec</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Interval * heater</t>
+  </si>
+  <si>
+    <t xml:space="preserve">heater</t>
+  </si>
+  <si>
+    <t xml:space="preserve">on/off</t>
+  </si>
+  <si>
+    <t xml:space="preserve">from MQTT BatTempPlug status change 1=on; 0=off</t>
+  </si>
+  <si>
+    <t xml:space="preserve">heater_kWhr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cum kWhr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">from S31B MQTT status request</t>
+  </si>
+  <si>
+    <t xml:space="preserve">heater_watts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">watts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">interval</t>
+  </si>
+  <si>
     <t xml:space="preserve">sec</t>
   </si>
   <si>
-    <t xml:space="preserve">Unix UTC timestamp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">heat_interval</t>
-  </si>
-  <si>
-    <t xml:space="preserve">heating sec</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Interval * heater</t>
-  </si>
-  <si>
-    <t xml:space="preserve">heater</t>
-  </si>
-  <si>
-    <t xml:space="preserve">on/off</t>
-  </si>
-  <si>
-    <t xml:space="preserve">from MQTT BatTempPlug status change 1=on; 0=off</t>
-  </si>
-  <si>
-    <t xml:space="preserve">heater_kWhr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cum kWhr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">from S31B MQTT status request</t>
-  </si>
-  <si>
-    <t xml:space="preserve">heater_watts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">watts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">interval</t>
-  </si>
-  <si>
     <t xml:space="preserve">seconds since last record</t>
   </si>
   <si>
@@ -205,10 +214,34 @@
     <t xml:space="preserve">Tag eg. 23-04 is April 2023</t>
   </si>
   <si>
+    <t xml:space="preserve">Continuous Query:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cq_temp_m5  CREATE CONTINUOUS QUERY cq_temp_m5 ON battery_db BEGIN SELECT </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sum(interval) AS interval, first(local_dt) AS local_dt, mean(temp_closet) AS avg_temp_closet, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">max(temp_closet) AS max_temp_closet, min(temp_closet) AS min_temp_closet,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mean(temp_shed) AS avg_temp_shed, mean(temp_outdoor) AS avg_temp_outdoor, first(heater) AS heater, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sum(heat_interval) AS heater_on, first(heater_watts) AS heater_watts, last(heater_kWhr) AS heater_last_kWhr, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">first(heater_kWhr) AS heater_first_kWhr INTO battery_db.m5.temp FROM battery_db.s5.temp GROUP BY time(5m), * END</t>
+  </si>
+  <si>
     <t xml:space="preserve">m5.temp</t>
   </si>
   <si>
-    <t xml:space="preserve">CONTINUOUS QUERY "cq_temp_m5" GROUP BY time(5m)</t>
+    <t xml:space="preserve">CONTINUOUS QUERY "cq_temp_m5" GROUP BY time(5m), *</t>
+  </si>
+  <si>
+    <t xml:space="preserve">First time round down Unix UTC timestamp</t>
   </si>
   <si>
     <t xml:space="preserve">avg_temp_closet</t>
@@ -229,12 +262,21 @@
     <t xml:space="preserve">mean("temp_shed")</t>
   </si>
   <si>
+    <t xml:space="preserve">[0,1]</t>
+  </si>
+  <si>
     <t xml:space="preserve">first("heater")</t>
   </si>
   <si>
+    <t xml:space="preserve">? max()</t>
+  </si>
+  <si>
     <t xml:space="preserve">heater_first_kWhr</t>
   </si>
   <si>
+    <t xml:space="preserve">kWhr</t>
+  </si>
+  <si>
     <t xml:space="preserve">first(heater_kWhr)</t>
   </si>
   <si>
@@ -247,15 +289,21 @@
     <t xml:space="preserve">heater_on</t>
   </si>
   <si>
-    <t xml:space="preserve">sum("heater" * "interval")</t>
+    <t xml:space="preserve">sum(heat_interval)</t>
   </si>
   <si>
     <t xml:space="preserve">first("heater_watts")</t>
   </si>
   <si>
+    <t xml:space="preserve">?mean()</t>
+  </si>
+  <si>
     <t xml:space="preserve">sum("interval")</t>
   </si>
   <si>
+    <t xml:space="preserve">string</t>
+  </si>
+  <si>
     <t xml:space="preserve">first("local_dt")</t>
   </si>
   <si>
@@ -269,6 +317,312 @@
   </si>
   <si>
     <t xml:space="preserve">min("temp_closet")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GROUP BY time(5m), * </t>
+  </si>
+  <si>
+    <t xml:space="preserve">cq_temp_m30 CREATE CONTINUOUS QUERY cq_temp_m30 ON battery_db BEGIN SELECT </t>
+  </si>
+  <si>
+    <t xml:space="preserve">mean(avg_temp_closet) AS avg_temp_closet, max(max_temp_closet) AS max_temp_closet, min(min_temp_closet) AS min_temp_closet, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">mean(avg_temp_shed) AS avg_temp_shed, mean(avg_temp_outdoor) AS avg_temp_outdoor, last(heater) AS heater, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sum(heater_on) AS heater_on, last(heater_watts) AS heater_watts, sum(heater_kWhr) AS heater_kWhr, sum(interval) AS interval, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">last(local_dt) AS local_dt, last(yr_mo) AS yr_mo INTO battery_db.m30.temp FROM battery_db.m5.temp GROUP BY time(30m), * END</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m30.temp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CONTINUOUS QUERY "cq_temp_m30" GROUP BY time(30m), *</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UTC 30min round increments</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mean(avg_temp_closet)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mean(avg_temp_shed) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">mean(avg_temp_outdoor)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">last(heater)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sum(heater_on)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">last(heater_watts) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">?? mean()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sum(interval)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">last(local_dt)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">?? first()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">max(max_temp_closet)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">min(min_temp_closet)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">last(yr_mo)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sum(heater_kWhr)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cq_temp_d1  CREATE CONTINUOUS QUERY cq_temp_d1 ON battery_db BEGIN </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SELECT mean(avg_temp_closet) AS avg_temp_closet, max(max_temp_closet) AS max_temp_closet, min(min_temp_closet) AS min_temp_closet, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">mean(avg_temp_shed) AS avg_temp_shed, mean(avg_temp_outdoor) AS avg_temp_outdoor, sum(heater_on) / 3600 AS heater_on, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sum(heater_on) / sum(interval) AS "pct.heater_on", sum(interval) / 3600 AS interval, sum(heater_kWhr) AS heater_kWhr, last(local_dt) AS local_dt, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">last(yr_mo) AS yr_mo INTO battery_db.d1.temp FROM battery_db.m30.temp GROUP BY time(1d), * END</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d1.temp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CONTINUOUS QUERY "cq_temp_d1" GROUP BY time(1d), *</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Start of interval midnight 00:00 Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mean(avg_temp_outdoor) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sum(heater_on) / 3600</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sum(interval) / 3600</t>
+  </si>
+  <si>
+    <t xml:space="preserve">?  first()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">max(max_temp_closet) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">pct.heater_on</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sum(heater_on) / sum(interval)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">last("heater_kWhr") – first(heater_kWhr) AS heater_kWhr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">battery measure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">s30.battery</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Source: PacketListner_V5h.py  write about every 30 sec</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ahr2empty</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ahr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">avgCurrent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">amps</t>
+  </si>
+  <si>
+    <t xml:space="preserve">avgVoltage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">volts DC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">avgWatts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Charging = +</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kWh_charge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">daily since local 00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kWh_discharge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">“</t>
+  </si>
+  <si>
+    <t xml:space="preserve">maxCurrent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">maxWatts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Watts charge=+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">minCurrent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">max discharge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">minWatts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">max charge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pak2ndMinT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pak2ndMinT_ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pak2ndMinV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pak2ndMinV_ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pakMinT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pakMinT_ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pakMinV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pakMinV_ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">soc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">percent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yr_mo_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cq_bat_m5   CREATE CONTINUOUS QUERY cq_bat_m5 ON battery_db BEGIN SELECT </t>
+  </si>
+  <si>
+    <t xml:space="preserve">min(soc) AS min_soc, min(Ahr2empty) AS min_Ahr2empty, min(avgVoltage) AS min_Voltage, mean(avgWatts) AS avgWatts, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">min(minWatts) AS maxDischargeWatts, max(maxWatts) AS maxChargeWatts, min(minCurrent) AS maxDischargeCurrent, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">max(maxCurrent) AS maxChargeCurrent, max(kWh_charge) AS kWh_charge, max(kWh_discharge) AS kWh_discharge, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sum(interval)  AS interval, min(pakMinT) AS pakMinT, min(pakMinV) AS pakMinV, first(local_dt) AS local_dt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INTO battery_db.m5.battery FROM battery_db.s30.battery GROUP BY time(5m), * END</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m5.battery</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CONTINUOUS QUERY “cq_bat_m5” GROUP BY time(5m), * </t>
+  </si>
+  <si>
+    <t xml:space="preserve">first(local_dt)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">maxChargeCurrent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">maxChargeWatts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">maxDischargeCurrent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">maxDischargeWatts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">min_Ahr2empty</t>
+  </si>
+  <si>
+    <t xml:space="preserve">min_Voltage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">min_soc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cq_bat_m30  CREATE CONTINUOUS QUERY cq_bat_m30 ON battery_db BEGIN SELECT </t>
+  </si>
+  <si>
+    <t xml:space="preserve">min(min_soc) AS min_soc, min(min_Ahr2empty) AS min_Ahr2empty, min(min_Voltage) AS min_Voltage, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">mean(avgWatts) AS avgWatts, min(maxDischargeWatts) AS maxDischargeWatts, max(maxChargeWatts) AS maxChargeWatts, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">min(maxDischargeCurrent) AS maxDischargeCurrent, max(maxChargeCurrent) AS maxChargeCurrent, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">max(kWh_charge) AS kWh_charge, max(kWh_discharge) AS kWh_discharge, sum(interval) / 3600 AS interval, min(pakMinT) AS pakMinT, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">min(pakMinV) AS pakMinV, last(local_dt) AS local_dt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INTO battery_db.m30.battery FROM battery_db.m5.battery GROUP BY time(30m), * END</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m30.battery</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hours</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cq_bat_d1   CREATE CONTINUOUS QUERY cq_bat_d1 ON battery_db BEGIN SELECT </t>
+  </si>
+  <si>
+    <t xml:space="preserve">max(kWh_charge) AS kWh_charge, max(kWh_discharge) AS kWh_discharge, sum(interval) AS interval, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">min(pakMinT) AS pakMinT, min(pakMinV) AS pakMinV, first(local_dt) AS local_dt </t>
+  </si>
+  <si>
+    <t xml:space="preserve">INTO battery_db.d1.battery FROM battery_db.m30.battery GROUP BY time(1d), * END</t>
+  </si>
+  <si>
+    <t xml:space="preserve">min_m30Voltage</t>
   </si>
 </sst>
 </file>
@@ -278,11 +632,12 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -303,6 +658,12 @@
       <sz val="10"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -347,12 +708,24 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -373,17 +746,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F56"/>
+  <dimension ref="A1:F197"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A49" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A58" activeCellId="0" sqref="A58"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="794" topLeftCell="A175" activePane="bottomLeft" state="split"/>
+      <selection pane="topLeft" activeCell="A25" activeCellId="0" sqref="A25"/>
+      <selection pane="bottomLeft" activeCell="C188" activeCellId="0" sqref="C188"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.4"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15.07"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.93"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15.08"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="15.46"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="17.59"/>
   </cols>
@@ -445,337 +820,1344 @@
         <v>14</v>
       </c>
       <c r="D6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="E7" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="D9" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="E9" s="1" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+      <c r="B10" s="1" t="s">
         <v>28</v>
       </c>
+      <c r="C10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B15" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B16" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B17" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B18" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B19" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B20" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="D20" s="0" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B21" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="D21" s="0" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B22" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="D22" s="0" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B23" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="D23" s="0" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B24" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="D24" s="0" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="B27" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="C27" s="0" t="s">
+      <c r="B27" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B28" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B29" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B30" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B31" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B32" s="2"/>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="D27" s="0" t="s">
+      <c r="B33" s="0" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="s">
+      <c r="C33" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="D28" s="0" t="s">
+      <c r="D33" s="0" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B29" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="C29" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="D29" s="0" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B30" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="C30" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="D30" s="0" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B31" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="C31" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="D31" s="0" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B32" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="C32" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="D32" s="0" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B33" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="C33" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="D33" s="0" t="s">
-        <v>46</v>
-      </c>
-    </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B34" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="C34" s="0" t="s">
-        <v>36</v>
+      <c r="A34" s="0" t="s">
+        <v>71</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>50</v>
+        <v>72</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B35" s="0" t="s">
-        <v>51</v>
+        <v>37</v>
+      </c>
+      <c r="C35" s="0" t="s">
+        <v>52</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>52</v>
+        <v>73</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B36" s="0" t="s">
-        <v>53</v>
+        <v>74</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>55</v>
+        <v>75</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B37" s="0" t="s">
-        <v>56</v>
+        <v>76</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>57</v>
+        <v>77</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B38" s="0" t="s">
-        <v>58</v>
+        <v>78</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="D38" s="0" t="s">
-        <v>57</v>
+        <v>79</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B39" s="0" t="s">
-        <v>59</v>
+        <v>43</v>
+      </c>
+      <c r="C39" s="0" t="s">
+        <v>80</v>
       </c>
       <c r="D39" s="0" t="s">
-        <v>60</v>
+        <v>81</v>
+      </c>
+      <c r="E39" s="0" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B40" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="C40" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="D40" s="0" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="0" t="s">
-        <v>29</v>
-      </c>
       <c r="B41" s="0" t="s">
-        <v>30</v>
+        <v>86</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>31</v>
+        <v>84</v>
       </c>
       <c r="D41" s="0" t="s">
-        <v>32</v>
+        <v>87</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="D42" s="0" t="s">
-        <v>62</v>
-      </c>
+      <c r="B42" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="C42" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="E42" s="3"/>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B43" s="0" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="D43" s="0" t="s">
-        <v>37</v>
+        <v>90</v>
+      </c>
+      <c r="E43" s="0" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B44" s="0" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D44" s="0" t="s">
-        <v>64</v>
+        <v>92</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B45" s="0" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>54</v>
+        <v>93</v>
       </c>
       <c r="D45" s="0" t="s">
-        <v>66</v>
+        <v>94</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B46" s="0" t="s">
-        <v>67</v>
+        <v>95</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="D46" s="0" t="s">
-        <v>68</v>
+        <v>96</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B47" s="0" t="s">
-        <v>41</v>
+        <v>97</v>
+      </c>
+      <c r="C47" s="0" t="s">
+        <v>57</v>
       </c>
       <c r="D47" s="0" t="s">
-        <v>69</v>
+        <v>98</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B48" s="0" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="D48" s="0" t="s">
-        <v>71</v>
+        <v>99</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B49" s="0" t="s">
-        <v>72</v>
-      </c>
-      <c r="D49" s="0" t="s">
-        <v>73</v>
+      <c r="A49" s="0" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B50" s="0" t="s">
+      <c r="A50" s="0" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B51" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B52" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B53" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B54" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="B55" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="C55" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="D55" s="0" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="D56" s="0" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B57" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="C57" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="D57" s="0" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B58" s="0" t="s">
         <v>74</v>
       </c>
-      <c r="D50" s="0" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B51" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="D51" s="0" t="s">
+      <c r="C58" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B59" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="C59" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B60" s="0" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B52" s="0" t="s">
+      <c r="C60" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B61" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E61" s="0" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B62" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B63" s="0" t="s">
         <v>49</v>
       </c>
-      <c r="D52" s="0" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B53" s="0" t="s">
+      <c r="D63" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E63" s="0" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B64" s="0" t="s">
         <v>51</v>
       </c>
-      <c r="D53" s="0" t="s">
+      <c r="D64" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B65" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E65" s="0" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B66" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C66" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B67" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C67" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B68" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E68" s="0" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B70" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B71" s="0" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="0" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="0" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B74" s="4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B75" s="4" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B76" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B77" s="4" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="B78" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="C78" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="D78" s="0" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="D79" s="0" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B80" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="D80" s="0" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B81" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="D81" s="4" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B82" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="D82" s="4" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B83" s="0" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B54" s="0" t="s">
-        <v>79</v>
-      </c>
-      <c r="D54" s="0" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B55" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="D55" s="0" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B56" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="D56" s="0" t="s">
-        <v>59</v>
+      <c r="D83" s="4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B84" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="D84" s="4" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B85" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="D85" s="4" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B86" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="D86" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="E86" s="0" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B87" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="D87" s="4" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B88" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="D88" s="4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B89" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="D89" s="4" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B90" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="D90" s="4" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D92" s="4" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D93" s="0" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D94" s="0" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="B96" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="C96" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="D96" s="0" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="D97" s="0" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B98" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="C98" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="D98" s="0" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B99" s="0" t="s">
+        <v>141</v>
+      </c>
+      <c r="C99" s="0" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B100" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="C100" s="0" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B101" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="C101" s="0" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B102" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="C102" s="0" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B103" s="0" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B104" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="C104" s="0" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B105" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="C105" s="0" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B106" s="0" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B107" s="0" t="s">
+        <v>153</v>
+      </c>
+      <c r="C107" s="0" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B108" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="C108" s="0" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B109" s="0" t="s">
+        <v>156</v>
+      </c>
+      <c r="C109" s="0" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B110" s="0" t="s">
+        <v>158</v>
+      </c>
+      <c r="C110" s="0" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B111" s="0" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B112" s="0" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B113" s="0" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B114" s="0" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B115" s="0" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B116" s="0" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B117" s="0" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B118" s="0" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B119" s="0" t="s">
+        <v>168</v>
+      </c>
+      <c r="C119" s="0" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B120" s="0" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B121" s="0" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A123" s="0" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A124" s="0" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B125" s="4" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B126" s="4" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B127" s="4" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B128" s="4" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B129" s="4" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A130" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="B130" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="C130" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="D130" s="0" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A131" s="0" t="s">
+        <v>177</v>
+      </c>
+      <c r="B131" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="D131" s="4" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B132" s="0" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B133" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="C133" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="D133" s="4" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B134" s="0" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B135" s="0" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B136" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="D136" s="4" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B137" s="0" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B138" s="0" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B139" s="0" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B140" s="0" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B141" s="0" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B142" s="0" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B143" s="0" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B144" s="0" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B145" s="0" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B146" s="0" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B147" s="0" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A148" s="0" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A149" s="0" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B150" s="4" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B151" s="4" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B152" s="4" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B153" s="4" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B154" s="4" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B155" s="4" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A156" s="0" t="s">
+        <v>194</v>
+      </c>
+      <c r="B156" s="4"/>
+    </row>
+    <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B157" s="0" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B158" s="0" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B159" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="C159" s="0" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B160" s="0" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B161" s="0" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B162" s="0" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B163" s="0" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B164" s="0" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B165" s="0" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B166" s="0" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B167" s="0" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B168" s="0" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B169" s="0" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B170" s="0" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B171" s="0" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B172" s="0" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A174" s="0" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B175" s="4" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B176" s="4" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B177" s="4" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B178" s="4" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B179" s="4" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B180" s="4" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B182" s="0" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B183" s="0" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B184" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="C184" s="0" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B185" s="0" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B186" s="0" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B187" s="0" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B188" s="0" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B189" s="0" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B190" s="0" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B191" s="0" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B192" s="0" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B193" s="0" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B194" s="0" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B195" s="0" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B196" s="0" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B197" s="0" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
